--- a/sumN.xlsx
+++ b/sumN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15973\Desktop\大二下\并行程序设计\实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D38846-DBD2-462A-87A7-AD599C4AAECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E37DD-8CF6-4A4E-BBCD-F1C15BBB6C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="230" windowWidth="22750" windowHeight="13110" xr2:uid="{ACE00ECD-7FD4-4589-A001-99CE63740C97}"/>
+    <workbookView xWindow="2080" yWindow="1120" windowWidth="22750" windowHeight="13110" xr2:uid="{ACE00ECD-7FD4-4589-A001-99CE63740C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,12 +458,19 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -474,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -497,25 +504,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.6224100000000002E-2</v>
+        <v>2.8367E-2</v>
       </c>
       <c r="C2">
-        <v>3.4685500000000001E-2</v>
+        <v>3.1309999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>3.6988699999999999E-2</v>
+        <v>3.0498000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>0.25362699999999999</v>
+        <v>4.4838000000000003E-2</v>
       </c>
       <c r="F2">
-        <v>0.53230599999999995</v>
+        <v>5.0243000000000003E-2</v>
       </c>
       <c r="G2">
-        <v>3.0931299999999999</v>
+        <v>4.7885999999999998E-2</v>
       </c>
       <c r="H2">
-        <v>14.5303</v>
+        <v>5.0776000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -523,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.6519699999999997E-2</v>
+        <v>5.3261999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>4.4232399999999998E-2</v>
+        <v>5.7504E-2</v>
       </c>
       <c r="D3">
-        <v>7.4979100000000007E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>0.25206200000000001</v>
+        <v>8.1394999999999995E-2</v>
       </c>
       <c r="F3">
-        <v>0.53530699999999998</v>
+        <v>8.8100999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>3.1261199999999998</v>
+        <v>8.5565000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>13.9155</v>
+        <v>9.4946000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -549,25 +556,25 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>9.5924400000000007E-2</v>
+        <v>0.119212</v>
       </c>
       <c r="C4">
-        <v>8.0987400000000001E-2</v>
+        <v>0.11506</v>
       </c>
       <c r="D4">
-        <v>0.14429500000000001</v>
+        <v>0.101204</v>
       </c>
       <c r="E4">
-        <v>0.24328</v>
+        <v>0.13893</v>
       </c>
       <c r="F4">
-        <v>0.53461499999999995</v>
+        <v>0.14475199999999999</v>
       </c>
       <c r="G4">
-        <v>3.0956700000000001</v>
+        <v>0.15259400000000001</v>
       </c>
       <c r="H4">
-        <v>13.9909</v>
+        <v>0.143675</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -575,25 +582,25 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.20768700000000001</v>
+        <v>0.221439</v>
       </c>
       <c r="C5">
-        <v>0.14132900000000001</v>
+        <v>0.25043199999999999</v>
       </c>
       <c r="D5">
-        <v>0.26383299999999998</v>
+        <v>0.16255900000000001</v>
       </c>
       <c r="E5">
-        <v>0.28582299999999999</v>
+        <v>0.24957699999999999</v>
       </c>
       <c r="F5">
-        <v>0.53964299999999998</v>
+        <v>0.26889800000000003</v>
       </c>
       <c r="G5">
-        <v>3.0731000000000002</v>
+        <v>0.28089900000000001</v>
       </c>
       <c r="H5">
-        <v>14.6357</v>
+        <v>0.27535500000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -601,25 +608,25 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>0.460538</v>
+        <v>0.45430999999999999</v>
       </c>
       <c r="C6">
-        <v>0.27732400000000001</v>
+        <v>0.44952599999999998</v>
       </c>
       <c r="D6">
-        <v>0.48635600000000001</v>
+        <v>0.30221300000000001</v>
       </c>
       <c r="E6">
-        <v>0.40690500000000002</v>
+        <v>0.46366800000000002</v>
       </c>
       <c r="F6">
-        <v>0.52578400000000003</v>
+        <v>0.42622599999999999</v>
       </c>
       <c r="G6">
-        <v>3.0538500000000002</v>
+        <v>0.50500400000000001</v>
       </c>
       <c r="H6">
-        <v>13.909800000000001</v>
+        <v>0.45693400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -627,25 +634,25 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>0.46334999999999998</v>
+        <v>0.90490099999999996</v>
       </c>
       <c r="C7">
-        <v>0.476132</v>
+        <v>0.93520099999999995</v>
       </c>
       <c r="D7">
-        <v>1.06488</v>
+        <v>0.54765799999999998</v>
       </c>
       <c r="E7">
-        <v>0.58469199999999999</v>
+        <v>0.89277099999999998</v>
       </c>
       <c r="F7">
-        <v>0.73246999999999995</v>
+        <v>1.1113900000000001</v>
       </c>
       <c r="G7">
-        <v>3.3234599999999999</v>
+        <v>0.77101799999999998</v>
       </c>
       <c r="H7">
-        <v>13.913500000000001</v>
+        <v>0.79245600000000005</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -653,25 +660,25 @@
         <v>128</v>
       </c>
       <c r="B8">
-        <v>0.81312799999999996</v>
+        <v>1.8161700000000001</v>
       </c>
       <c r="C8">
-        <v>0.82008700000000001</v>
+        <v>2.0171299999999999</v>
       </c>
       <c r="D8">
-        <v>2.19218</v>
+        <v>0.97164499999999998</v>
       </c>
       <c r="E8">
-        <v>1.0202800000000001</v>
+        <v>1.8588899999999999</v>
       </c>
       <c r="F8">
-        <v>1.0985</v>
+        <v>2.3436499999999998</v>
       </c>
       <c r="G8">
-        <v>3.2110099999999999</v>
+        <v>1.40944</v>
       </c>
       <c r="H8">
-        <v>13.942500000000001</v>
+        <v>1.4699199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -679,25 +686,25 @@
         <v>256</v>
       </c>
       <c r="B9">
-        <v>1.5287999999999999</v>
+        <v>4.1983300000000003</v>
       </c>
       <c r="C9">
-        <v>1.45455</v>
+        <v>3.52841</v>
       </c>
       <c r="D9">
-        <v>3.8534600000000001</v>
+        <v>1.9854499999999999</v>
       </c>
       <c r="E9">
-        <v>1.77722</v>
+        <v>3.57613</v>
       </c>
       <c r="F9">
-        <v>1.8455999999999999</v>
+        <v>4.1147200000000002</v>
       </c>
       <c r="G9">
-        <v>3.14513</v>
+        <v>2.7212900000000002</v>
       </c>
       <c r="H9">
-        <v>14.409800000000001</v>
+        <v>2.86069</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,25 +712,25 @@
         <v>512</v>
       </c>
       <c r="B10">
-        <v>3.0971700000000002</v>
+        <v>8.3974100000000007</v>
       </c>
       <c r="C10">
-        <v>2.8949500000000001</v>
+        <v>6.3203899999999997</v>
       </c>
       <c r="D10">
-        <v>7.0276899999999998</v>
+        <v>2.6357900000000001</v>
       </c>
       <c r="E10">
-        <v>3.1166499999999999</v>
+        <v>7.1013700000000002</v>
       </c>
       <c r="F10">
-        <v>3.03775</v>
+        <v>7.4751599999999998</v>
       </c>
       <c r="G10">
-        <v>4.2253699999999998</v>
+        <v>5.3988100000000001</v>
       </c>
       <c r="H10">
-        <v>14.125999999999999</v>
+        <v>5.7024400000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -731,25 +738,25 @@
         <v>1024</v>
       </c>
       <c r="B11">
-        <v>5.7386900000000001</v>
+        <v>17.368600000000001</v>
       </c>
       <c r="C11">
-        <v>5.3506600000000004</v>
+        <v>11.9194</v>
       </c>
       <c r="D11">
-        <v>12.792199999999999</v>
+        <v>5.2257999999999996</v>
       </c>
       <c r="E11">
-        <v>5.6289999999999996</v>
+        <v>14.075900000000001</v>
       </c>
       <c r="F11">
-        <v>5.3662599999999996</v>
+        <v>13.841799999999999</v>
       </c>
       <c r="G11">
-        <v>6.6269900000000002</v>
+        <v>10.5878</v>
       </c>
       <c r="H11">
-        <v>14.054500000000001</v>
+        <v>11.0337</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -757,25 +764,25 @@
         <v>2048</v>
       </c>
       <c r="B12">
-        <v>11.545299999999999</v>
+        <v>33.866199999999999</v>
       </c>
       <c r="C12">
-        <v>10.546799999999999</v>
+        <v>23.473199999999999</v>
       </c>
       <c r="D12">
-        <v>23.9147</v>
+        <v>10.236700000000001</v>
       </c>
       <c r="E12">
-        <v>10.9872</v>
+        <v>28.150400000000001</v>
       </c>
       <c r="F12">
-        <v>10.007199999999999</v>
+        <v>27.076899999999998</v>
       </c>
       <c r="G12">
-        <v>11.312200000000001</v>
+        <v>20.874400000000001</v>
       </c>
       <c r="H12">
-        <v>22.238199999999999</v>
+        <v>21.034199999999998</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -783,25 +790,25 @@
         <v>4096</v>
       </c>
       <c r="B13">
-        <v>23.011099999999999</v>
+        <v>67.133499999999998</v>
       </c>
       <c r="C13">
-        <v>21.582699999999999</v>
+        <v>43.9407</v>
       </c>
       <c r="D13">
-        <v>46.057099999999998</v>
+        <v>20.588999999999999</v>
       </c>
       <c r="E13">
-        <v>20.438700000000001</v>
+        <v>56.020299999999999</v>
       </c>
       <c r="F13">
-        <v>19.913599999999999</v>
+        <v>48.658999999999999</v>
       </c>
       <c r="G13">
-        <v>20.8309</v>
+        <v>41.480600000000003</v>
       </c>
       <c r="H13">
-        <v>37.892200000000003</v>
+        <v>41.937800000000003</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -809,25 +816,25 @@
         <v>8192</v>
       </c>
       <c r="B14">
-        <v>45.902999999999999</v>
+        <v>132.56200000000001</v>
       </c>
       <c r="C14">
-        <v>41.078299999999999</v>
+        <v>85.057400000000001</v>
       </c>
       <c r="D14">
-        <v>88.1631</v>
+        <v>44.408099999999997</v>
       </c>
       <c r="E14">
-        <v>41.065199999999997</v>
+        <v>112.21</v>
       </c>
       <c r="F14">
-        <v>38.1967</v>
+        <v>95.550200000000004</v>
       </c>
       <c r="G14">
-        <v>39.5015</v>
+        <v>82.939099999999996</v>
       </c>
       <c r="H14">
-        <v>70.278899999999993</v>
+        <v>83.444000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -835,25 +842,25 @@
         <v>16384</v>
       </c>
       <c r="B15">
-        <v>90.210999999999999</v>
+        <v>265.50700000000001</v>
       </c>
       <c r="C15">
-        <v>83.222800000000007</v>
+        <v>174.17500000000001</v>
       </c>
       <c r="D15">
-        <v>176.15100000000001</v>
+        <v>88.8904</v>
       </c>
       <c r="E15">
-        <v>91.323700000000002</v>
+        <v>225.066</v>
       </c>
       <c r="F15">
-        <v>76.758399999999995</v>
+        <v>192.26400000000001</v>
       </c>
       <c r="G15">
-        <v>77.727800000000002</v>
+        <v>167.64</v>
       </c>
       <c r="H15">
-        <v>134.30500000000001</v>
+        <v>170.18600000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -861,25 +868,25 @@
         <v>32768</v>
       </c>
       <c r="B16">
-        <v>184.74299999999999</v>
+        <v>533.45699999999999</v>
       </c>
       <c r="C16">
-        <v>171.26679999999999</v>
+        <v>345.95400000000001</v>
       </c>
       <c r="D16">
-        <v>345.50400000000002</v>
+        <v>165.512</v>
       </c>
       <c r="E16">
-        <v>183.76599999999999</v>
+        <v>451.666</v>
       </c>
       <c r="F16">
-        <v>151.17099999999999</v>
+        <v>382.69299999999998</v>
       </c>
       <c r="G16">
-        <v>156.27699999999999</v>
+        <v>345.79</v>
       </c>
       <c r="H16">
-        <v>264.15300000000002</v>
+        <v>341.64499999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,25 +894,25 @@
         <v>65536</v>
       </c>
       <c r="B17">
-        <v>371.44499999999999</v>
+        <v>1075.8</v>
       </c>
       <c r="C17">
-        <v>339.28699999999998</v>
+        <v>657.76099999999997</v>
       </c>
       <c r="D17">
-        <v>666.65499999999997</v>
+        <v>335.45699999999999</v>
       </c>
       <c r="E17">
-        <v>365.51</v>
+        <v>902.78099999999995</v>
       </c>
       <c r="F17">
-        <v>304.24</v>
+        <v>760.51599999999996</v>
       </c>
       <c r="G17">
-        <v>309.73700000000002</v>
+        <v>673.00199999999995</v>
       </c>
       <c r="H17">
-        <v>519.30999999999995</v>
+        <v>687.178</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -913,25 +920,25 @@
         <v>131072</v>
       </c>
       <c r="B18">
-        <v>734.44079999999997</v>
+        <v>2058.7199999999998</v>
       </c>
       <c r="C18">
-        <v>672.99400000000003</v>
+        <v>1284.25</v>
       </c>
       <c r="D18">
-        <v>1314.001</v>
+        <v>675.822</v>
       </c>
       <c r="E18">
-        <v>726.95500000000004</v>
+        <v>1846.27</v>
       </c>
       <c r="F18">
-        <v>609.80899999999997</v>
+        <v>1514.17</v>
       </c>
       <c r="G18">
-        <v>611.58399999999995</v>
+        <v>1364.04</v>
       </c>
       <c r="H18">
-        <v>1037.24</v>
+        <v>1516.47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
